--- a/database/merise/src/exercice3_horse_racing/doc/data_dictionary.xlsx
+++ b/database/merise/src/exercice3_horse_racing/doc/data_dictionary.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fturl\Documents\GitHub\FTurleque\abc_2105-perso\base_de_donnee\merise\exercice3_horse_racing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fturl\Documents\GitHub\FTurleque\abc_2105-perso\database\merise\src\exercice3_horse_racing\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55DD762E-F4B3-43BC-ACF1-03CA1C155FB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8064D67-C810-4D95-96F7-B0C2088BAF36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -130,7 +130,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -169,23 +169,28 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <i/>
       <sz val="10"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -200,18 +205,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE8E8E8"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD2D2D2"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -271,11 +288,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -283,16 +309,22 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -301,10 +333,49 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -589,20 +660,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="13" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -619,171 +691,171 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="4">
         <v>48</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="25" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="8" t="s">
+      <c r="D3" s="5"/>
+      <c r="E3" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="10">
         <v>20</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="24" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="10">
         <v>11</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="16">
         <v>11</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="17" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+    <row r="7" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="16">
         <v>20</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="16" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
+    <row r="8" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="16">
         <v>11</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="16" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
+    <row r="9" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="22">
         <v>48</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="22" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
+    <row r="10" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="21">
+        <v>48</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B11" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C11" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D11" s="21">
         <v>11</v>
       </c>
-      <c r="E10" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="5">
-        <v>48</v>
-      </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="21" t="s">
         <v>16</v>
       </c>
     </row>
